--- a/REGULAR/HRMO/OCAMPO, EDRALYN BAES.xlsx
+++ b/REGULAR/HRMO/OCAMPO, EDRALYN BAES.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="353">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1821,7 +1821,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K500" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K502" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2150,12 +2150,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K500"/>
+  <dimension ref="A2:K502"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A467" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A485" activePane="bottomLeft"/>
       <selection activeCell="F1" sqref="F1:F1048576"/>
-      <selection pane="bottomLeft" activeCell="H483" sqref="H483"/>
+      <selection pane="bottomLeft" activeCell="K501" sqref="K501"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2318,7 +2318,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>159.14599999999999</v>
+        <v>161.64599999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2328,7 +2328,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>205.83299999999997</v>
+        <v>207.33299999999997</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -13042,13 +13042,15 @@
       <c r="B496" s="20" t="s">
         <v>348</v>
       </c>
-      <c r="C496" s="13"/>
+      <c r="C496" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D496" s="39"/>
       <c r="E496" s="9"/>
       <c r="F496" s="20"/>
-      <c r="G496" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G496" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H496" s="39">
         <v>3</v>
@@ -13132,13 +13134,15 @@
       <c r="B500" s="15" t="s">
         <v>346</v>
       </c>
-      <c r="C500" s="42"/>
+      <c r="C500" s="42">
+        <v>1.25</v>
+      </c>
       <c r="D500" s="43"/>
       <c r="E500" s="49"/>
       <c r="F500" s="15"/>
-      <c r="G500" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G500" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H500" s="43">
         <v>1</v>
@@ -13148,6 +13152,48 @@
       <c r="K500" s="57">
         <v>45125</v>
       </c>
+    </row>
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A501" s="40">
+        <v>45139</v>
+      </c>
+      <c r="B501" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="C501" s="42"/>
+      <c r="D501" s="39"/>
+      <c r="E501" s="9"/>
+      <c r="F501" s="20"/>
+      <c r="G501" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H501" s="39">
+        <v>1</v>
+      </c>
+      <c r="I501" s="9"/>
+      <c r="J501" s="11"/>
+      <c r="K501" s="52">
+        <v>45162</v>
+      </c>
+    </row>
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A502" s="40">
+        <v>45170</v>
+      </c>
+      <c r="B502" s="20"/>
+      <c r="C502" s="42"/>
+      <c r="D502" s="39"/>
+      <c r="E502" s="9"/>
+      <c r="F502" s="20"/>
+      <c r="G502" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H502" s="39"/>
+      <c r="I502" s="9"/>
+      <c r="J502" s="11"/>
+      <c r="K502" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -13314,7 +13360,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="59">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>364.97899999999993</v>
+        <v>368.97899999999993</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
